--- a/biology/Médecine/Jin_(manga)/Jin_(manga).xlsx
+++ b/biology/Médecine/Jin_(manga)/Jin_(manga).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jin (JIN-仁-?) est un seinen manga de Motoka Murakami, prépublié dans le magazine Super Jump entre 2000 et 2010 et publié par l'éditeur Shūeisha en 20 volumes reliés sortis entre avril 2001 et février 2011. La version française est éditée par Tonkam entre juillet 2007 et juin 2015.
 Le manga est adapté sous le même titre en une série télévisée de deux saisons comptant chacune onze épisodes de 60 minutes, diffusés au Japon entre le 11 octobre 2009 et le 26 juin 2011 sur TBS.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jin Minakata est un neurochirurgien japonais qui se retrouve envoyé dans le passé à l'époque d'Edo. À peine arrivé, il sauve Kyôtaro, le fils d'une famille hatamoto pauvre, la famille Tachibana. En effet le jeune homme avait été blessé à la tête par le coup de sabre d'un samouraï. Jin n'hésite pas à intervenir et l'opère. Reconnaissante, la mère Tachibana, bien qu'au début méfiante, l'accueille et le loge. Très vite sa chambre devient un petit cabinet où il soigne quiconque serait dans le besoin. Impressionnée par le talent et l'abnégation pour la médecine dont fait preuve Jin, la fille Tachibana, Saki décide de l'assister dans sa besogne en devenant son infirmière. Lorsque se pointe l'épidémie du choléra à Edo, Jin fait tout son possible pour empêcher la contamination en isolant les malades. Face à l'épidémie de la syphilis ou variole, il tente de créer sa propre pénicilline, à partir de moisissure. Ses succès mais aussi ses défaites, le conforte dans son idée de sauver la population d'Edo grâce à ses compétences poussées en médecine. Cette technique venue d'une autre époque, son talent et sa volonté de soigner le peuple sans se soucier des classes sociales très en vigueur à l'époque ne tarde pas à lui conférer une certaine notoriété à travers tout Edo. C'est ainsi qu'il rencontrera des personnalités célèbres dans l'histoire du Japon tels que Katsu Kaishū et son apprenti Ryoma Sakamoto mais aussi des médecins occidentaux. Cette grande considération de certains puissants attire aussi la jalousie de beaucoup de membre de l'école de médecine chinoise, médecine officielle du shogunat et aussi du centre de médecine occidentale qui voient en Jin une menace pour leur place. Mais Jin est embarrassé : ne risque-t-il pas de modifier le cours de l'histoire en agissant ainsi ?
 </t>
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jin Minakata, est le personnage principal de la série. C'est un chirurgien de la fin du XXe siècle qui se retrouve transporté à la fin de l'époque d'Edo, peu avant la restauration de Meiji à la suite d'une opération étrange d'où il retire un fœtus du cerveau d'un homme. Après avoir été opéré, l'homme mystérieux s'enfuit de sa chambre d'hôpital avec le bocal qui contient le fœtus et une trousse de secours contenant notamment des outils de chirurgie. Au cours d'une lutte avec cet homme, Jin tombe dans les escaliers et ratterrit à l'époque d'Edo. Au moment où il part, on est en 2000 et il a 36 ans. Dès le début il va soigner les habitants d'Edo qui en ont besoin. Au cours d'histoire sa vision sur sa place dans cette époque évolue : il veut finalement y rester afin de sauver le maximum de personnes qui aurait dû mourir d'épidémies ou de blessures.
 Saki Tachibana, jeune fille de 16 ans chez laquelle Jin est accueilli. Elle se prend d'affection pour Jin et l'empêche de sombrer dans le désespoir. Personne gentille, curieuse et empathique, c'est tout naturellement qu'elle devient infirmière. Elle refuse un mariage arrangé par sa mère pour rester soigner avec Jin, ce qui cause une rupture avec sa famille. Elle montre une curiosité insatiable et est la première personne avec qui Jin partage des connaissances médicinales. Elle l'aide constamment dans ses opérations. Saki est un personnage courageux qui sort de la place de femme inférieure qui lui est conféré dans cette société encore féodale, pour défendre ses idéaux. Elle risque même sa vie pour sauver Jin et une opération contre des samouraïs hostiles.
@@ -579,10 +595,12 @@
           <t>Parution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jin est prépublié dans le magazine Super Jump entre 2000 et 2010[1]. Initialement publié par Shūeisha en vingt volumes reliés sortis entre avril 2001 et février 2011, le manga est réédité en treize volumes au format bunko entre juillet 2010 et juillet 2011[2]. En France, le manga est édité par Tonkam entre juillet 2007 et juin 2015[3].
-Liste des volumes</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jin est prépublié dans le magazine Super Jump entre 2000 et 2010. Initialement publié par Shūeisha en vingt volumes reliés sortis entre avril 2001 et février 2011, le manga est réédité en treize volumes au format bunko entre juillet 2010 et juillet 2011. En France, le manga est édité par Tonkam entre juillet 2007 et juin 2015.
+</t>
         </is>
       </c>
     </row>
@@ -610,9 +628,11 @@
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le manga a été adapté en série télévisée de deux saisons comptant chacune onze épisodes de 60 minutes, diffusés au Japon entre le 11 octobre 2009 et le 26 juin 2011 sur TBS[4],[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le manga a été adapté en série télévisée de deux saisons comptant chacune onze épisodes de 60 minutes, diffusés au Japon entre le 11 octobre 2009 et le 26 juin 2011 sur TBS,.
 Une autre adaptation télévisée sud-coréenne, diffusée sur MBC, a vu le jour en 2012 sous le titre Dr. Jin.
 </t>
         </is>
